--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="343">
   <si>
     <t>ID</t>
   </si>
@@ -1020,253 +1020,256 @@
     <t>Автомати-зирован</t>
   </si>
   <si>
-    <t>TC-001</t>
-  </si>
-  <si>
-    <t>TC-002</t>
-  </si>
-  <si>
-    <t>TC-003</t>
-  </si>
-  <si>
-    <t>TC-004</t>
-  </si>
-  <si>
-    <t>TC-005</t>
-  </si>
-  <si>
-    <t>TC-006</t>
-  </si>
-  <si>
-    <t>TC-007</t>
-  </si>
-  <si>
-    <t>TC-008</t>
-  </si>
-  <si>
-    <t>TC-009</t>
-  </si>
-  <si>
-    <t>TC-010</t>
-  </si>
-  <si>
-    <t>TC-011</t>
-  </si>
-  <si>
-    <t>TC-012</t>
-  </si>
-  <si>
-    <t>TC-013</t>
-  </si>
-  <si>
-    <t>TC-014</t>
-  </si>
-  <si>
-    <t>TC-016</t>
-  </si>
-  <si>
-    <t>TC-015</t>
-  </si>
-  <si>
-    <t>TC-017</t>
-  </si>
-  <si>
-    <t>TC-018</t>
-  </si>
-  <si>
-    <t>TC-019</t>
-  </si>
-  <si>
-    <t>TC-020</t>
-  </si>
-  <si>
-    <t>TC-021</t>
-  </si>
-  <si>
-    <t>TC-022</t>
-  </si>
-  <si>
-    <t>TC-023</t>
-  </si>
-  <si>
-    <t>TC-024</t>
-  </si>
-  <si>
-    <t>TC-025</t>
-  </si>
-  <si>
-    <t>TC-026</t>
-  </si>
-  <si>
-    <t>TC-027</t>
-  </si>
-  <si>
-    <t>TC-028</t>
-  </si>
-  <si>
-    <t>TC-029</t>
-  </si>
-  <si>
-    <t>TC-030</t>
-  </si>
-  <si>
-    <t>TC-031</t>
-  </si>
-  <si>
-    <t>TC-032</t>
-  </si>
-  <si>
-    <t>TC-033</t>
-  </si>
-  <si>
-    <t>TC-034</t>
-  </si>
-  <si>
-    <t>TC-035</t>
-  </si>
-  <si>
-    <t>TC-036</t>
-  </si>
-  <si>
-    <t>TC-037</t>
-  </si>
-  <si>
-    <t>TC-038</t>
-  </si>
-  <si>
-    <t>TC-039</t>
-  </si>
-  <si>
-    <t>TC-040</t>
-  </si>
-  <si>
-    <t>TC-041</t>
-  </si>
-  <si>
-    <t>TC-042</t>
-  </si>
-  <si>
-    <t>TC-043</t>
-  </si>
-  <si>
-    <t>TC-044</t>
-  </si>
-  <si>
-    <t>TC-045</t>
-  </si>
-  <si>
-    <t>TC-046</t>
-  </si>
-  <si>
-    <t>TC-047</t>
-  </si>
-  <si>
-    <t>TC-048</t>
-  </si>
-  <si>
-    <t>TC-049</t>
-  </si>
-  <si>
-    <t>TC-050</t>
-  </si>
-  <si>
-    <t>TC-051</t>
-  </si>
-  <si>
-    <t>TC-052</t>
-  </si>
-  <si>
-    <t>TC-053</t>
-  </si>
-  <si>
-    <t>TC-054</t>
-  </si>
-  <si>
-    <t>TC-055</t>
-  </si>
-  <si>
-    <t>TC-056</t>
-  </si>
-  <si>
-    <t>TC-057</t>
-  </si>
-  <si>
-    <t>TC-058</t>
-  </si>
-  <si>
-    <t>TC-059</t>
-  </si>
-  <si>
-    <t>TC-060</t>
-  </si>
-  <si>
-    <t>TC-061</t>
-  </si>
-  <si>
-    <t>TC-062</t>
-  </si>
-  <si>
-    <t>TC-063</t>
-  </si>
-  <si>
-    <t>TC-064</t>
-  </si>
-  <si>
-    <t>TC-065</t>
-  </si>
-  <si>
-    <t>TC-066</t>
-  </si>
-  <si>
-    <t>TC-067</t>
-  </si>
-  <si>
-    <t>TC-068</t>
-  </si>
-  <si>
-    <t>TC-069</t>
-  </si>
-  <si>
-    <t>TC-070</t>
-  </si>
-  <si>
-    <t>TC-071</t>
-  </si>
-  <si>
-    <t>TC-072</t>
-  </si>
-  <si>
-    <t>TC-073</t>
-  </si>
-  <si>
-    <t>TC-074</t>
-  </si>
-  <si>
-    <t>TC-075</t>
-  </si>
-  <si>
-    <t>TC-076</t>
-  </si>
-  <si>
-    <t>TC-077</t>
-  </si>
-  <si>
-    <t>TC-078</t>
-  </si>
-  <si>
-    <t>TC-079</t>
-  </si>
-  <si>
-    <t>TC-080</t>
-  </si>
-  <si>
-    <t>TC-081</t>
-  </si>
-  <si>
-    <t>TC-082</t>
-  </si>
-  <si>
-    <t>TC-083</t>
+    <t>ТК1-001</t>
+  </si>
+  <si>
+    <t>ТК1-002</t>
+  </si>
+  <si>
+    <t>ТК1-003</t>
+  </si>
+  <si>
+    <t>ТК1-004</t>
+  </si>
+  <si>
+    <t>ТК1-005</t>
+  </si>
+  <si>
+    <t>ТК1-006</t>
+  </si>
+  <si>
+    <t>ТК1-007</t>
+  </si>
+  <si>
+    <t>ТК1-008</t>
+  </si>
+  <si>
+    <t>ТК1-009</t>
+  </si>
+  <si>
+    <t>ТК1-010</t>
+  </si>
+  <si>
+    <t>ТК1-011</t>
+  </si>
+  <si>
+    <t>ТК2-001</t>
+  </si>
+  <si>
+    <t>ТК2-002</t>
+  </si>
+  <si>
+    <t>ТК2-003</t>
+  </si>
+  <si>
+    <t>ТК2-004</t>
+  </si>
+  <si>
+    <t>ТК2-005</t>
+  </si>
+  <si>
+    <t>ТК2-006</t>
+  </si>
+  <si>
+    <t>ТК2-007</t>
+  </si>
+  <si>
+    <t>ТК2-008</t>
+  </si>
+  <si>
+    <t>ТК2-009</t>
+  </si>
+  <si>
+    <t>ТК2-010</t>
+  </si>
+  <si>
+    <t>ТК3-001</t>
+  </si>
+  <si>
+    <t>ТК3-002</t>
+  </si>
+  <si>
+    <t>ТК3-003</t>
+  </si>
+  <si>
+    <t>ТК3-004</t>
+  </si>
+  <si>
+    <t>ТК3-005</t>
+  </si>
+  <si>
+    <t>ТК3-006</t>
+  </si>
+  <si>
+    <t>ТК3-007</t>
+  </si>
+  <si>
+    <t>ТК3-008</t>
+  </si>
+  <si>
+    <t>ТК3-009</t>
+  </si>
+  <si>
+    <t>ТК3-010</t>
+  </si>
+  <si>
+    <t>ТК3-011</t>
+  </si>
+  <si>
+    <t>ТК3-012</t>
+  </si>
+  <si>
+    <t>ТК3-013</t>
+  </si>
+  <si>
+    <t>ТК3-014</t>
+  </si>
+  <si>
+    <t>ТК3-015</t>
+  </si>
+  <si>
+    <t>ТК4-001</t>
+  </si>
+  <si>
+    <t>ТК4-002</t>
+  </si>
+  <si>
+    <t>ТК4-003</t>
+  </si>
+  <si>
+    <t>ТК4-004</t>
+  </si>
+  <si>
+    <t>ТК4-005</t>
+  </si>
+  <si>
+    <t>ТК4-006</t>
+  </si>
+  <si>
+    <t>ТК4-007</t>
+  </si>
+  <si>
+    <t>ТК4-008</t>
+  </si>
+  <si>
+    <t>ТК4-009</t>
+  </si>
+  <si>
+    <t>ТК4-010</t>
+  </si>
+  <si>
+    <t>ТК4-011</t>
+  </si>
+  <si>
+    <t>ТК4-012</t>
+  </si>
+  <si>
+    <t>ТК4-013</t>
+  </si>
+  <si>
+    <t>ТК4-014</t>
+  </si>
+  <si>
+    <t>ТК4-015</t>
+  </si>
+  <si>
+    <t>ТК4-016</t>
+  </si>
+  <si>
+    <t>ТК4-017</t>
+  </si>
+  <si>
+    <t>ТК4-018</t>
+  </si>
+  <si>
+    <t>ТК4-019</t>
+  </si>
+  <si>
+    <t>ТК4-020</t>
+  </si>
+  <si>
+    <t>ТК4-021</t>
+  </si>
+  <si>
+    <t>ТК4-022</t>
+  </si>
+  <si>
+    <t>ТК4-023</t>
+  </si>
+  <si>
+    <t>ТК4-024</t>
+  </si>
+  <si>
+    <t>ТК4-025</t>
+  </si>
+  <si>
+    <t>ТК4-026</t>
+  </si>
+  <si>
+    <t>ТК4-027</t>
+  </si>
+  <si>
+    <t>ТК4-028</t>
+  </si>
+  <si>
+    <t>ТК4-029</t>
+  </si>
+  <si>
+    <t>ТК4-030</t>
+  </si>
+  <si>
+    <t>ТК5-001</t>
+  </si>
+  <si>
+    <t>ТК5-002</t>
+  </si>
+  <si>
+    <t>ТК5-003</t>
+  </si>
+  <si>
+    <t>ТК6-001</t>
+  </si>
+  <si>
+    <t>ТК6-002</t>
+  </si>
+  <si>
+    <t>ТК6-003</t>
+  </si>
+  <si>
+    <t>ТК7-001</t>
+  </si>
+  <si>
+    <t>ТК7-002</t>
+  </si>
+  <si>
+    <t>ТК7-003</t>
+  </si>
+  <si>
+    <t>ТК7-004</t>
+  </si>
+  <si>
+    <t>ТК7-005</t>
+  </si>
+  <si>
+    <t>ТК7-006</t>
+  </si>
+  <si>
+    <t>ТК8-001</t>
+  </si>
+  <si>
+    <t>ТК8-002</t>
+  </si>
+  <si>
+    <t>ТК8-003</t>
+  </si>
+  <si>
+    <t>ТК8-004</t>
+  </si>
+  <si>
+    <t>ТК8-005</t>
+  </si>
+  <si>
+    <t>Да</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1546,8 +1549,23 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1562,7 +1580,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1573,7 +1591,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1582,7 +1600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1689,22 +1707,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2053,7 +2074,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J83" sqref="J83"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2225,7 +2246,7 @@
       <c r="G4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I4" s="6"/>
@@ -2271,7 +2292,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -2315,7 +2336,7 @@
       <c r="G6" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I6" s="6"/>
@@ -2361,7 +2382,7 @@
         <v>192</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2405,8 +2426,8 @@
       <c r="G8" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="32" t="s">
-        <v>257</v>
+      <c r="H8" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2451,7 +2472,7 @@
         <v>195</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2495,7 +2516,7 @@
       <c r="G10" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="6"/>
@@ -2563,29 +2584,29 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:27" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I12" s="6"/>
@@ -2631,7 +2652,7 @@
         <v>200</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2675,8 +2696,8 @@
       <c r="G14" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="H14" s="32" t="s">
-        <v>257</v>
+      <c r="H14" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2721,7 +2742,7 @@
         <v>204</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2745,7 +2766,7 @@
     </row>
     <row r="16" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>215</v>
@@ -2765,8 +2786,8 @@
       <c r="G16" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>257</v>
+      <c r="H16" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2790,7 +2811,7 @@
     </row>
     <row r="17" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>206</v>
@@ -2811,7 +2832,7 @@
         <v>208</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -2855,8 +2876,8 @@
       <c r="G18" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="32" t="s">
-        <v>257</v>
+      <c r="H18" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2945,8 +2966,8 @@
       <c r="G20" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="H20" s="32" t="s">
-        <v>257</v>
+      <c r="H20" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -3013,30 +3034,30 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="32" t="s">
-        <v>257</v>
+      <c r="H22" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -3081,7 +3102,7 @@
         <v>216</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -3125,7 +3146,7 @@
       <c r="G24" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I24" s="6"/>
@@ -3215,7 +3236,7 @@
       <c r="G26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I26" s="6"/>
@@ -3305,7 +3326,7 @@
       <c r="G28" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I28" s="6"/>
@@ -3395,7 +3416,7 @@
       <c r="G30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I30" s="6"/>
@@ -3485,7 +3506,7 @@
       <c r="G32" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I32" s="6"/>
@@ -3575,7 +3596,7 @@
       <c r="G34" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I34" s="6"/>
@@ -3665,7 +3686,7 @@
       <c r="G36" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I36" s="6"/>
@@ -3688,26 +3709,26 @@
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
     </row>
-    <row r="37" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F37" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="40" t="s">
         <v>80</v>
       </c>
       <c r="H37" s="29" t="s">
@@ -3755,8 +3776,8 @@
       <c r="G38" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="H38" s="32" t="s">
-        <v>257</v>
+      <c r="H38" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I38" s="6"/>
       <c r="K38" s="6"/>
@@ -3844,7 +3865,7 @@
       <c r="G40" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I40" s="6"/>
@@ -3934,7 +3955,7 @@
       <c r="G42" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I42" s="6"/>
@@ -4024,8 +4045,8 @@
       <c r="G44" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="H44" s="32" t="s">
-        <v>257</v>
+      <c r="H44" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -4070,7 +4091,7 @@
         <v>238</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -4114,7 +4135,7 @@
       <c r="G46" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I46" s="6"/>
@@ -4160,7 +4181,7 @@
         <v>90</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -4204,7 +4225,7 @@
       <c r="G48" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I48" s="6"/>
@@ -4250,7 +4271,7 @@
         <v>93</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -4294,8 +4315,8 @@
       <c r="G50" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="32" t="s">
-        <v>257</v>
+      <c r="H50" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -4384,7 +4405,7 @@
       <c r="G52" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="H52" s="32" t="s">
+      <c r="H52" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I52" s="6"/>
@@ -4474,7 +4495,7 @@
       <c r="G54" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H54" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I54" s="6"/>
@@ -4564,7 +4585,7 @@
       <c r="G56" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I56" s="6"/>
@@ -4654,7 +4675,7 @@
       <c r="G58" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="32" t="s">
+      <c r="H58" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I58" s="6"/>
@@ -4744,7 +4765,7 @@
       <c r="G60" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H60" s="32" t="s">
+      <c r="H60" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I60" s="6"/>
@@ -4834,7 +4855,7 @@
       <c r="G62" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="H62" s="32" t="s">
+      <c r="H62" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I62" s="6"/>
@@ -4924,7 +4945,7 @@
       <c r="G64" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I64" s="6"/>
@@ -5014,7 +5035,7 @@
       <c r="G66" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="H66" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I66" s="6"/>
@@ -5037,26 +5058,26 @@
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
+    <row r="67" spans="1:27" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="G67" s="40" t="s">
         <v>136</v>
       </c>
       <c r="H67" s="29" t="s">
@@ -5104,8 +5125,8 @@
       <c r="G68" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="H68" s="32" t="s">
-        <v>257</v>
+      <c r="H68" s="29" t="s">
+        <v>342</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -5172,29 +5193,29 @@
       <c r="Z69" s="6"/>
       <c r="AA69" s="6"/>
     </row>
-    <row r="70" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="21" t="s">
+    <row r="70" spans="1:27" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="37" t="s">
+      <c r="D70" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="G70" s="39" t="s">
+      <c r="G70" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H70" s="32" t="s">
+      <c r="H70" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I70" s="6"/>
@@ -5284,7 +5305,7 @@
       <c r="G72" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="H72" s="32" t="s">
+      <c r="H72" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I72" s="6"/>
@@ -5307,26 +5328,26 @@
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
     </row>
-    <row r="73" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:27" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="B73" s="36" t="s">
+      <c r="B73" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="41" t="s">
+      <c r="F73" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="40" t="s">
         <v>147</v>
       </c>
       <c r="H73" s="29" t="s">
@@ -5374,7 +5395,7 @@
       <c r="G74" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H74" s="32" t="s">
+      <c r="H74" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I74" s="6"/>
@@ -5464,7 +5485,7 @@
       <c r="G76" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="H76" s="32" t="s">
+      <c r="H76" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I76" s="6"/>
@@ -5554,7 +5575,7 @@
       <c r="G78" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H78" s="32" t="s">
+      <c r="H78" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I78" s="6"/>
@@ -5577,26 +5598,26 @@
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
     </row>
-    <row r="79" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="21" t="s">
+    <row r="79" spans="1:27" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="B79" s="36" t="s">
+      <c r="B79" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="37" t="s">
+      <c r="D79" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="40" t="s">
         <v>168</v>
       </c>
       <c r="H79" s="29" t="s">
@@ -5644,7 +5665,7 @@
       <c r="G80" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H80" s="32" t="s">
+      <c r="H80" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I80" s="6"/>
@@ -5734,7 +5755,7 @@
       <c r="G82" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H82" s="32" t="s">
+      <c r="H82" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I82" s="6"/>
@@ -5824,7 +5845,7 @@
       <c r="G84" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="H84" s="32" t="s">
+      <c r="H84" s="29" t="s">
         <v>257</v>
       </c>
       <c r="I84" s="6"/>
